--- a/formats/excel/Formats RAPSS ANO 12.xlsx
+++ b/formats/excel/Formats RAPSS ANO 12.xlsx
@@ -1,393 +1,729 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="435" windowWidth="23475" windowHeight="10770"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NOFINESS</t>
+  </si>
   <si>
     <t xml:space="preserve">N° FINESS de l'entité juridique </t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>NOFINESS_GEO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° FINESS de l'établissement (code géographique) </t>
   </si>
   <si>
+    <t>NOFORMAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° format </t>
   </si>
   <si>
+    <t>NOFORMHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° format VID-HOSP </t>
   </si>
   <si>
+    <t>MOISSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mois de sortie </t>
   </si>
   <si>
+    <t>ANSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Année de sortie  </t>
   </si>
   <si>
+    <t>CRSECU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « n° immatriculation assuré  » </t>
   </si>
   <si>
+    <t>CRDNAI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « date de  naissance » </t>
   </si>
   <si>
+    <t>CRSEXE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « sexe » </t>
   </si>
   <si>
+    <t>CRNODA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « n° d’identification administratif de séjour » </t>
   </si>
   <si>
+    <t>CRFUSHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour « fusion ANO-HOSP et HOSP-PMSI » </t>
   </si>
   <si>
+    <t>CRFUSPMSI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour « fusion ANO-PMSI et fichier PMSI » </t>
   </si>
   <si>
+    <t>CRDTENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « date de référence» (date d’entrée) </t>
   </si>
   <si>
+    <t>NOANON</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° anonyme </t>
   </si>
   <si>
+    <t>NOSEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° de séjour </t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° séquentiel de séjour HAD/Numéro séquentiel d'entrée </t>
   </si>
   <si>
+    <t>DTENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date d'entrée </t>
   </si>
   <si>
+    <t>DTSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date de sortie </t>
   </si>
   <si>
+    <t>CRCODEGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code grand régime » </t>
   </si>
   <si>
+    <t>CREXTICM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
+  </si>
+  <si>
+    <t>CRPRFOJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
+  </si>
+  <si>
+    <t>CRNATASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « nature d’assurance » </t>
   </si>
   <si>
+    <t>CRTYPECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
+  </si>
+  <si>
+    <t>CRFACTAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « séjour facturable à l’assurance maladie » </t>
   </si>
   <si>
+    <t>CRMOTNOFACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
+  </si>
+  <si>
+    <t>CRTOP18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « facturation du 18 euro » </t>
   </si>
   <si>
+    <t>CRNBEVEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « nombre de venues de la facture » </t>
   </si>
   <si>
+    <t>CRTICMOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
+  </si>
+  <si>
+    <t>CRFORJOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
+  </si>
+  <si>
+    <t>CRFACTOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
+  </si>
+  <si>
+    <t>CRMAJPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
+  </si>
+  <si>
+    <t>CRMTBASE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant base remboursement » </t>
   </si>
   <si>
+    <t>CRTXRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « taux de remboursement » </t>
   </si>
   <si>
+    <t>CRPBCMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Patient bénéficiaire de la CMU » </t>
   </si>
   <si>
+    <t>Filler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filler </t>
   </si>
   <si>
+    <t>CRRMBAMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
+  </si>
+  <si>
+    <t>CODEGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code grand régime </t>
   </si>
   <si>
+    <t>JUSTICKMOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code justification d’exonération du ticket modérateur </t>
   </si>
   <si>
+    <t>CDPRFOJO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code de prise en charge du forfait journalier  </t>
   </si>
   <si>
+    <t>NATASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nature d'assurance </t>
   </si>
   <si>
+    <t>TYPECONT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type de contrat souscrit auprès d'un organisme complémentaire </t>
   </si>
   <si>
+    <t>FACTAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Séjour facturable à l’assurance maladie </t>
   </si>
   <si>
+    <t>MOTNOFACT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Motif de la non facturation à l'assurance maladie </t>
   </si>
   <si>
+    <t>FACT18E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facturation du 18 euro </t>
   </si>
   <si>
+    <t>NBEVEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>MTFORJOU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant à facturer au titre du forfait journalier  </t>
   </si>
   <si>
+    <t>MTFACTOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
+  </si>
+  <si>
+    <t>MTMALPAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant lié à la majoration au parcours de soins </t>
   </si>
   <si>
+    <t>MTBASERM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant base remboursement </t>
   </si>
   <si>
+    <t>TAUXRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taux de remboursement </t>
   </si>
   <si>
+    <t>PBCMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patient bénéficiaire de la CMU </t>
   </si>
   <si>
+    <t>Filler2</t>
+  </si>
+  <si>
+    <t>MTRMBAMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant total du séjour remboursable pour l'AMC </t>
-  </si>
-  <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>NOFINESS</t>
-  </si>
-  <si>
-    <t>NOFINESS_GEO</t>
-  </si>
-  <si>
-    <t>NOFORMAT</t>
-  </si>
-  <si>
-    <t>NOFORMHOSP</t>
-  </si>
-  <si>
-    <t>MOISSOR</t>
-  </si>
-  <si>
-    <t>ANSOR</t>
-  </si>
-  <si>
-    <t>CRSECU</t>
-  </si>
-  <si>
-    <t>CRDNAI</t>
-  </si>
-  <si>
-    <t>CRSEXE</t>
-  </si>
-  <si>
-    <t>CRNODA</t>
-  </si>
-  <si>
-    <t>CRFUSHOSP</t>
-  </si>
-  <si>
-    <t>CRFUSPMSI</t>
-  </si>
-  <si>
-    <t>CRDTENT</t>
-  </si>
-  <si>
-    <t>NOANON</t>
-  </si>
-  <si>
-    <t>NOSEJ</t>
-  </si>
-  <si>
-    <t>NOSEJHAD</t>
-  </si>
-  <si>
-    <t>DTENT</t>
-  </si>
-  <si>
-    <t>DTSOR</t>
-  </si>
-  <si>
-    <t>CRCODEGR</t>
-  </si>
-  <si>
-    <t>CREXTICM</t>
-  </si>
-  <si>
-    <t>CRPRFOJO</t>
-  </si>
-  <si>
-    <t>CRNATASS</t>
-  </si>
-  <si>
-    <t>CRTYPECO</t>
-  </si>
-  <si>
-    <t>CRFACTAM</t>
-  </si>
-  <si>
-    <t>CRMOTNOFACT</t>
-  </si>
-  <si>
-    <t>CRTOP18</t>
-  </si>
-  <si>
-    <t>CRNBEVEN</t>
-  </si>
-  <si>
-    <t>CRTICMOD</t>
-  </si>
-  <si>
-    <t>CRFORJOU</t>
-  </si>
-  <si>
-    <t>CRFACTOT</t>
-  </si>
-  <si>
-    <t>CRMAJPAR</t>
-  </si>
-  <si>
-    <t>CRMTBASE</t>
-  </si>
-  <si>
-    <t>CRTXRM</t>
-  </si>
-  <si>
-    <t>CRPBCMU</t>
-  </si>
-  <si>
-    <t>Filler</t>
-  </si>
-  <si>
-    <t>CRRMBAMC</t>
-  </si>
-  <si>
-    <t>CODEGR</t>
-  </si>
-  <si>
-    <t>CDPRFOJO</t>
-  </si>
-  <si>
-    <t>NATASS</t>
-  </si>
-  <si>
-    <t>TYPECONT</t>
-  </si>
-  <si>
-    <t>FACTAM</t>
-  </si>
-  <si>
-    <t>MOTNOFACT</t>
-  </si>
-  <si>
-    <t>FACT18E</t>
-  </si>
-  <si>
-    <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
-  </si>
-  <si>
-    <t>MTFORJOU</t>
-  </si>
-  <si>
-    <t>MTFACTOT</t>
-  </si>
-  <si>
-    <t>MTMALPAR</t>
-  </si>
-  <si>
-    <t>MTBASERM</t>
-  </si>
-  <si>
-    <t>TAUXRM</t>
-  </si>
-  <si>
-    <t>Filler2</t>
-  </si>
-  <si>
-    <t>MTRMBAMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
-  </si>
-  <si>
-    <t>PBCMU</t>
-  </si>
-  <si>
-    <t>JUSTICKMOD</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,23 +731,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -420,7 +1040,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -701,51 +1321,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7133333333333" customWidth="1"/>
+    <col min="2" max="2" width="105.426666666667" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8.28666666666667" customWidth="1"/>
+    <col min="5" max="5" width="4.57333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -757,15 +1379,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -777,15 +1399,15 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -797,15 +1419,15 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -817,15 +1439,15 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -837,15 +1459,15 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -857,15 +1479,15 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -877,15 +1499,15 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -897,15 +1519,15 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -917,15 +1539,15 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -937,15 +1559,15 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -957,15 +1579,15 @@
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -977,15 +1599,15 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -997,15 +1619,15 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1017,15 +1639,15 @@
         <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1037,15 +1659,15 @@
         <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1057,15 +1679,15 @@
         <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1077,15 +1699,15 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1097,15 +1719,15 @@
         <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1117,15 +1739,15 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1137,15 +1759,15 @@
         <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1157,15 +1779,15 @@
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1177,15 +1799,15 @@
         <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1197,15 +1819,15 @@
         <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1217,15 +1839,15 @@
         <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1237,15 +1859,15 @@
         <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1257,15 +1879,15 @@
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1277,15 +1899,15 @@
         <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1297,15 +1919,15 @@
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1317,15 +1939,15 @@
         <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1337,15 +1959,15 @@
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1357,15 +1979,15 @@
         <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1377,15 +1999,15 @@
         <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1397,15 +2019,15 @@
         <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1417,15 +2039,15 @@
         <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1437,15 +2059,15 @@
         <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1457,15 +2079,15 @@
         <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1477,15 +2099,15 @@
         <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1497,15 +2119,15 @@
         <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1517,15 +2139,15 @@
         <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1537,15 +2159,15 @@
         <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1557,15 +2179,15 @@
         <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1577,15 +2199,15 @@
         <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1597,15 +2219,15 @@
         <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1617,15 +2239,15 @@
         <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1637,15 +2259,15 @@
         <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -1657,15 +2279,15 @@
         <v>126</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>10</v>
@@ -1677,15 +2299,15 @@
         <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -1697,15 +2319,15 @@
         <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1717,15 +2339,15 @@
         <v>150</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1737,15 +2359,15 @@
         <v>160</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1757,15 +2379,15 @@
         <v>165</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1777,15 +2399,15 @@
         <v>166</v>
       </c>
       <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>42</v>
@@ -1797,15 +2419,15 @@
         <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -1817,34 +2439,43 @@
         <v>218</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>